--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhona\OneDrive\Máy tính\Nam\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\AI_Main\Project_Graduate_AI_Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>Giày đá bóng Puma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Vợt cầu lông</t>
   </si>
   <si>
-    <t>Tạ tập tay</t>
-  </si>
-  <si>
-    <t>Thảm tập Yoga</t>
-  </si>
-  <si>
     <t>bóng đá, giày, sân cỏ, chạy, bóng, nhân tạo, tự nhiên, ôm chân, sút, cổ cao, cổ thấp, đế cao su, da PU, vân 3D</t>
   </si>
   <si>
@@ -66,7 +57,16 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>bóng đá, giày, sân cỏ, chạy, bóng, nhân tạo, tự nhiên, ôm chân, sút, cổ cao, cổ thấp, đế cao su, da PU, lực sút, đôi chân, vải dệt, di chuyển linh hoạt, sân bóng</t>
+    <t>lable</t>
+  </si>
+  <si>
+    <t>sân cỏ, giày, sân 11 người, nike</t>
+  </si>
+  <si>
+    <t>Giày bóng đá sân cỏ</t>
+  </si>
+  <si>
+    <t>vợt, cầu lông, căng vợt, Yonex</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,42 +406,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -461,37 +450,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\AI_Main\Project_Graduate_AI_Chat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhona\OneDrive\Máy tính\Nam\Project_Graduate_AI_Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Vợt cầu lông</t>
   </si>
@@ -57,16 +57,16 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>lable</t>
-  </si>
-  <si>
-    <t>sân cỏ, giày, sân 11 người, nike</t>
-  </si>
-  <si>
-    <t>Giày bóng đá sân cỏ</t>
-  </si>
-  <si>
-    <t>vợt, cầu lông, căng vợt, Yonex</t>
+    <t>Giày đá bóng</t>
+  </si>
+  <si>
+    <t>Kính bơi</t>
+  </si>
+  <si>
+    <t>bơi lội, bơi, kính, bảo vệ mắt, mắt</t>
+  </si>
+  <si>
+    <t>bóng đá, giày, sân cỏ, chạy, bóng, nhân tạo, tự nhiên, ôm chân, sút, cổ cao, cổ thấp, đôi chân</t>
   </si>
 </sst>
 </file>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,10 +414,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,12 +425,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhona\OneDrive\Máy tính\Nam\Project_Graduate_AI_Chat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\AI_Main\Project_Graduate_AI_Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Vợt cầu lông</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>bóng đá, giày, sân cỏ, chạy, bóng, nhân tạo, tự nhiên, ôm chân, sút, cổ cao, cổ thấp, đế cao su, da PU, vân 3D</t>
   </si>
@@ -57,16 +54,22 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>Giày đá bóng</t>
-  </si>
-  <si>
     <t>Kính bơi</t>
   </si>
   <si>
     <t>bơi lội, bơi, kính, bảo vệ mắt, mắt</t>
   </si>
   <si>
-    <t>bóng đá, giày, sân cỏ, chạy, bóng, nhân tạo, tự nhiên, ôm chân, sút, cổ cao, cổ thấp, đôi chân</t>
+    <t>Giày đá bóng Mercurical</t>
+  </si>
+  <si>
+    <t>Vợt cầu lông Yonex</t>
+  </si>
+  <si>
+    <t>dây đan, khung vợt, cán vợt, vợt, lực căng, cầu, đũa vợt</t>
+  </si>
+  <si>
+    <t>bóng đá, giày, sân cỏ, chạy, bóng, ôm chân, sút, cổ cao, cổ thấp</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,38 +409,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -453,37 +457,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
